--- a/Laboratory_Activities/Laboratory_3.xlsx
+++ b/Laboratory_Activities/Laboratory_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ECE_425_MEXE_and_ME\Laboratory_Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28E3D2-8D82-4271-86EC-F1C6400FA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F67F5-D937-419E-9ACC-0C113DC7163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Background:</t>
   </si>
   <si>
-    <t>Submission Date: April 29, 2024 to May 3, 2024</t>
-  </si>
-  <si>
     <t>Block Diagram Algebra</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>1)</t>
   </si>
   <si>
-    <t>Block Diagrams. Asiign 2 members per block diagram.</t>
-  </si>
-  <si>
     <r>
       <t>G</t>
     </r>
@@ -310,6 +304,87 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = s-1</t>
+    </r>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) =  s - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / s</t>
+    </r>
+  </si>
+  <si>
+    <t>Submission Date: May 7, 2024</t>
+  </si>
+  <si>
+    <t>Block Diagrams. Asign 2 members per block diagram.</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -319,7 +394,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(s) = 1/s-1</t>
+      <t>(s) = 1 / (s - 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 2s</t>
     </r>
   </si>
   <si>
@@ -334,52 +433,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = s-1</t>
-    </r>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -389,79 +442,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>+s+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) =  s - 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = 1 / s - 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = 1 / s</t>
+      <t>(s) = 1 / (s-1)</t>
     </r>
   </si>
 </sst>
@@ -469,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,13 +556,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -633,11 +607,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -650,21 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,13 +664,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>313764</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>82177</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>8180</xdr:rowOff>
+      <xdr:rowOff>15650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -719,8 +693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="313764" y="82177"/>
-          <a:ext cx="9753601" cy="1773853"/>
+          <a:off x="313764" y="89647"/>
+          <a:ext cx="9801413" cy="1793650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1312,76 +1286,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B91D4F-23B8-465E-866A-BBD8D191C386}">
   <dimension ref="A12:R71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1403,25 +1377,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="A16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1442,45 +1416,45 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="B18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1501,24 +1475,24 @@
     </row>
     <row r="21" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="B21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
@@ -1564,7 +1538,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1584,29 +1558,29 @@
     <row r="25" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="C25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1626,23 +1600,23 @@
     <row r="27" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
+      <c r="C27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
@@ -1665,65 +1639,65 @@
     </row>
     <row r="29" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
+      <c r="B30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
+      <c r="B31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1742,7 +1716,7 @@
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1760,128 +1734,128 @@
     </row>
     <row r="34" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
+      <c r="B34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="C37" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
+      <c r="C37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="C38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
+      <c r="C38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1917,8 +1891,8 @@
     <row r="42" spans="1:17" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="21" t="s">
-        <v>24</v>
+      <c r="C42" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2074,12 +2048,12 @@
       <c r="B51" s="8"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="E51" s="14"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2095,12 +2069,12 @@
       <c r="B52" s="8"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2116,12 +2090,12 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -2152,7 +2126,7 @@
     <row r="55" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="23"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2169,8 +2143,8 @@
     <row r="56" spans="1:15" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="21" t="s">
-        <v>32</v>
+      <c r="C56" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2188,7 +2162,7 @@
     <row r="57" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="23"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2205,7 +2179,7 @@
     <row r="58" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="23"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2222,7 +2196,7 @@
     <row r="59" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="23"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2239,7 +2213,7 @@
     <row r="60" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="23"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2256,7 +2230,7 @@
     <row r="61" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="23"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2273,7 +2247,7 @@
     <row r="62" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="23"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -2290,7 +2264,7 @@
     <row r="63" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="23"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2307,7 +2281,7 @@
     <row r="64" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="23"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2324,14 +2298,14 @@
     <row r="65" spans="1:15" ht="24" x14ac:dyDescent="0.5">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="23"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="E65" s="14"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -2345,14 +2319,14 @@
     <row r="66" spans="1:15" ht="20.5" x14ac:dyDescent="0.5">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="23"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -2366,14 +2340,14 @@
     <row r="67" spans="1:15" ht="20.5" x14ac:dyDescent="0.5">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="23"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -2384,12 +2358,12 @@
       <c r="N67" s="4"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="22" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:15" ht="20.5" x14ac:dyDescent="0.5">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="23"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2441,11 +2415,17 @@
     </row>
     <row r="71" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B71" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B39:N39"/>
     <mergeCell ref="B34:Q34"/>
     <mergeCell ref="B35:Q35"/>
@@ -2454,12 +2434,6 @@
     <mergeCell ref="B30:O30"/>
     <mergeCell ref="C25:Q25"/>
     <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B31:O31"/>
     <mergeCell ref="C36:Q36"/>
     <mergeCell ref="C37:Q37"/>

--- a/Laboratory_Activities/Laboratory_3.xlsx
+++ b/Laboratory_Activities/Laboratory_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ECE_425_MEXE_and_ME\Laboratory_Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F67F5-D937-419E-9ACC-0C113DC7163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331413A-FDD9-4CF3-8DD6-DF5F700DEFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
+    <workbookView xWindow="-19290" yWindow="-2185" windowWidth="19380" windowHeight="10380" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="L&amp;IL" sheetId="1" r:id="rId1"/>
@@ -668,9 +668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
+      <xdr:colOff>316940</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>15650</xdr:rowOff>
+      <xdr:rowOff>12475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,9 +712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>26420</xdr:colOff>
+      <xdr:colOff>29595</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>125104</xdr:rowOff>
+      <xdr:rowOff>121929</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -836,7 +836,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>272157</xdr:colOff>
+      <xdr:colOff>275332</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>117248</xdr:rowOff>
     </xdr:to>
@@ -894,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>128900</xdr:rowOff>
+      <xdr:rowOff>125725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B91D4F-23B8-465E-866A-BBD8D191C386}">
   <dimension ref="A12:R71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1555,7 +1555,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18" t="s">

--- a/Laboratory_Activities/Laboratory_3.xlsx
+++ b/Laboratory_Activities/Laboratory_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ECE_425_MEXE_and_ME\Laboratory_Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331413A-FDD9-4CF3-8DD6-DF5F700DEFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43064856-E664-4239-8901-8F928A355346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-2185" windowWidth="19380" windowHeight="10380" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="L&amp;IL" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,135 @@
   </si>
   <si>
     <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = s-1</t>
+    </r>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) =  s - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / s</t>
+    </r>
+  </si>
+  <si>
+    <t>Submission Date: May 7, 2024</t>
+  </si>
+  <si>
+    <t>Block Diagrams. Asign 2 members per block diagram.</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / (s - 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / (s-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>G</t>
     </r>
     <r>
@@ -180,6 +309,78 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / (s+1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1/s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / 2s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -189,7 +390,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(s) = </t>
+      <t xml:space="preserve">(s) = 1 / </t>
     </r>
     <r>
       <rPr>
@@ -232,30 +433,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = s+1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -265,184 +442,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(s) = s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = 1/s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = s-1</t>
-    </r>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) =  s - 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>(s) = 1 / s</t>
-    </r>
-  </si>
-  <si>
-    <t>Submission Date: May 7, 2024</t>
-  </si>
-  <si>
-    <t>Block Diagrams. Asign 2 members per block diagram.</t>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = 1 / (s - 1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = 2s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = 1 / (s-1)</t>
     </r>
   </si>
 </sst>
@@ -617,16 +617,7 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -639,6 +630,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,76 +1286,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B91D4F-23B8-465E-866A-BBD8D191C386}">
   <dimension ref="A12:R71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1377,25 +1377,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1416,45 +1416,45 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="B18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1475,24 +1475,24 @@
     </row>
     <row r="21" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
@@ -1558,23 +1558,23 @@
     <row r="25" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
@@ -1600,23 +1600,23 @@
     <row r="27" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
@@ -1639,60 +1639,60 @@
     </row>
     <row r="29" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
@@ -1734,128 +1734,128 @@
     </row>
     <row r="34" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
     </row>
     <row r="35" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
     </row>
     <row r="37" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="39" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2048,7 +2048,7 @@
       <c r="B51" s="8"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="4"/>
@@ -2069,12 +2069,12 @@
       <c r="B52" s="8"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2090,12 +2090,12 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -2144,7 +2144,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2300,12 +2300,12 @@
       <c r="B65" s="4"/>
       <c r="C65" s="15"/>
       <c r="D65" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -2321,12 +2321,12 @@
       <c r="B66" s="4"/>
       <c r="C66" s="15"/>
       <c r="D66" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -2342,12 +2342,12 @@
       <c r="B67" s="4"/>
       <c r="C67" s="15"/>
       <c r="D67" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -2363,7 +2363,7 @@
       <c r="B68" s="4"/>
       <c r="C68" s="15"/>
       <c r="D68" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2420,12 +2420,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B39:N39"/>
     <mergeCell ref="B34:Q34"/>
     <mergeCell ref="B35:Q35"/>
@@ -2438,6 +2432,12 @@
     <mergeCell ref="C36:Q36"/>
     <mergeCell ref="C37:Q37"/>
     <mergeCell ref="C38:Q38"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="B18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>

--- a/Laboratory_Activities/Laboratory_3.xlsx
+++ b/Laboratory_Activities/Laboratory_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ECE_425_MEXE_and_ME\Laboratory_Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43064856-E664-4239-8901-8F928A355346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9B1D25-8F61-4E06-AF93-5441F70CFA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{436EDD96-9EA9-4216-9029-18E06F9F9C1B}"/>
   </bookViews>
@@ -169,55 +169,7 @@
     <t>1)</t>
   </si>
   <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) = s-1</t>
-    </r>
-  </si>
-  <si>
     <t>2)</t>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(s) =  s - 1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -443,6 +395,54 @@
         <family val="2"/>
       </rPr>
       <t>(s) = 1 / s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / (s-2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(s) = 1 / (s - 2)</t>
     </r>
   </si>
 </sst>
@@ -617,7 +617,16 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -630,15 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,76 +1286,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B91D4F-23B8-465E-866A-BBD8D191C386}">
   <dimension ref="A12:R71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1377,25 +1377,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1416,45 +1416,45 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="B18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1475,24 +1475,24 @@
     </row>
     <row r="21" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
@@ -1558,23 +1558,23 @@
     <row r="25" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
@@ -1600,23 +1600,23 @@
     <row r="27" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
@@ -1639,60 +1639,60 @@
     </row>
     <row r="29" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
@@ -1734,128 +1734,128 @@
     </row>
     <row r="34" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2048,12 +2048,12 @@
       <c r="B51" s="8"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2069,12 +2069,12 @@
       <c r="B52" s="8"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2090,12 +2090,12 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -2144,7 +2144,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2300,12 +2300,12 @@
       <c r="B65" s="4"/>
       <c r="C65" s="15"/>
       <c r="D65" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -2321,12 +2321,12 @@
       <c r="B66" s="4"/>
       <c r="C66" s="15"/>
       <c r="D66" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -2342,12 +2342,12 @@
       <c r="B67" s="4"/>
       <c r="C67" s="15"/>
       <c r="D67" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -2363,7 +2363,7 @@
       <c r="B68" s="4"/>
       <c r="C68" s="15"/>
       <c r="D68" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2420,6 +2420,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B39:N39"/>
     <mergeCell ref="B34:Q34"/>
     <mergeCell ref="B35:Q35"/>
@@ -2432,12 +2438,6 @@
     <mergeCell ref="C36:Q36"/>
     <mergeCell ref="C37:Q37"/>
     <mergeCell ref="C38:Q38"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="B18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
